--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:N5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>Pravara Rural College of Engineering, Loni, MH</t>
   </si>
@@ -216,9 +216,6 @@
     <t>OP stock</t>
   </si>
   <si>
-    <t>Prodcution</t>
-  </si>
-  <si>
     <t>Dispatch/Sales</t>
   </si>
   <si>
@@ -253,13 +250,16 @@
   </si>
   <si>
     <t>to date</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -415,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -467,9 +475,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,7 +1251,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1252,72 +1262,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="19" customFormat="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2">
-        <v>61.59</v>
-      </c>
-      <c r="H2">
-        <v>552.52</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
+      <c r="K2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>1.57</v>
@@ -1331,6 +1347,12 @@
       <c r="F3">
         <v>1969.04</v>
       </c>
+      <c r="G3">
+        <v>61.59</v>
+      </c>
+      <c r="H3">
+        <v>552.52</v>
+      </c>
       <c r="J3">
         <v>73.8</v>
       </c>
@@ -1340,48 +1362,99 @@
       <c r="L3">
         <v>468</v>
       </c>
+      <c r="M3" s="20">
+        <v>1.68</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>207.54</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5">
         <v>1546.5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4369.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>133.01</v>
+      </c>
+      <c r="I5">
+        <v>432.72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>1294.5</v>
+      </c>
+      <c r="L5">
+        <v>3897</v>
+      </c>
+      <c r="M5">
+        <v>207.54</v>
+      </c>
+      <c r="N5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -351,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -419,11 +419,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -472,14 +589,46 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1261,14 +1410,14 @@
     <col min="14" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="19" customFormat="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" s="18" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D1" s="22" t="s">
@@ -1286,19 +1435,17 @@
       </c>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="23" t="s">
         <v>76</v>
       </c>
@@ -1326,142 +1473,167 @@
       <c r="L2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="A3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="36">
         <v>1.57</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="36">
         <v>135.5</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="36">
         <v>869.6</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="36">
         <v>1969.04</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="36">
         <v>61.59</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="36">
         <v>552.52</v>
       </c>
-      <c r="J3">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36">
         <v>73.8</v>
       </c>
-      <c r="K3">
+      <c r="K4" s="36">
         <v>320.39999999999998</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="36">
         <v>468</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M4" s="37">
         <v>1.68</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" s="38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N5" s="38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B6" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="24">
         <v>207.54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="24">
         <v>1546.5</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="24">
         <v>4369.5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="24">
         <v>133.01</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="24">
         <v>432.72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K5">
+      <c r="K6" s="24">
         <v>1294.5</v>
       </c>
-      <c r="L5">
+      <c r="L6" s="24">
         <v>3897</v>
       </c>
-      <c r="M5">
+      <c r="M6" s="24">
         <v>207.54</v>
       </c>
-      <c r="N5">
+      <c r="N6" s="40">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -593,29 +593,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -626,7 +605,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1411,128 +1411,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="41"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="29">
         <v>1.57</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="29">
         <v>135.5</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="29">
         <v>869.6</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="29">
         <v>1969.04</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="29">
         <v>61.59</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="29">
         <v>552.52</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36">
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
         <v>73.8</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="29">
         <v>320.39999999999998</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="29">
         <v>468</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="30">
         <v>1.68</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="31" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1540,43 +1540,43 @@
       <c r="A5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="31" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1584,56 +1584,56 @@
       <c r="A6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>207.54</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>1546.5</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>4369.5</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>133.01</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>432.72</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>1294.5</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>3897</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="23">
         <v>207.54</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="33">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>Pravara Rural College of Engineering, Loni, MH</t>
   </si>
@@ -198,24 +198,12 @@
     <t>road no.9D, V nagar, 14 rasipuram, taluk, n</t>
   </si>
   <si>
-    <t>Ayesha Walikar</t>
-  </si>
-  <si>
-    <t>Room no. 18 , city police line, near nagar parishad, ravivar peth, Satara. 415002</t>
-  </si>
-  <si>
     <t>PAC (Liquid)</t>
   </si>
   <si>
     <t>Products</t>
   </si>
   <si>
-    <t xml:space="preserve">UOM </t>
-  </si>
-  <si>
-    <t>OP stock</t>
-  </si>
-  <si>
     <t>Dispatch/Sales</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
     <t>Closing stock</t>
   </si>
   <si>
-    <t>Mkg offer</t>
-  </si>
-  <si>
     <t>PAC 18</t>
   </si>
   <si>
@@ -252,7 +237,16 @@
     <t>to date</t>
   </si>
   <si>
-    <t>Production</t>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Prodcution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP stock </t>
+  </si>
+  <si>
+    <t>Marketing offer</t>
   </si>
 </sst>
 </file>
@@ -540,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -605,29 +599,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,22 +1372,290 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>61</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16">
+        <f>A1/(A1+1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="17">
+        <f>1-EXP(-A1)</f>
+        <v>0.63212055882855767</v>
+      </c>
+      <c r="D1">
+        <f>C1*B1</f>
+        <v>0.31606027941427883</v>
+      </c>
+      <c r="F1">
+        <f>B1*B1</f>
+        <v>0.25</v>
+      </c>
+      <c r="G1">
+        <f>C1*C1</f>
+        <v>0.39957640089372803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16">
+        <f t="shared" ref="B2:B9" si="0">A2/(A2+1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C2" s="17">
+        <f t="shared" ref="C2:C9" si="1">1-EXP(-A2)</f>
+        <v>0.8646647167633873</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D9" si="2">C2*B2</f>
+        <v>0.57644314450892487</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F9" si="3">B2*B2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G9" si="4">C2*C2</f>
+        <v>0.74764507241550882</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="17">
+        <f t="shared" si="1"/>
+        <v>0.95021293163213605</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>0.71265969872410206</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="4"/>
+        <v>0.90290461544093847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="16">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" si="1"/>
+        <v>0.99326205300091452</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0.82771837750076216</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>0.98656950593159154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="1"/>
+        <v>0.99752124782333362</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.8550182124200002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>0.73469387755102034</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>0.99504863985902059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="1"/>
+        <v>0.99908811803444553</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.87420210328013981</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>0.765625</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>0.99817706759761016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="1"/>
+        <v>0.99966453737209748</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.88859069988630879</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.79012345679012341</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>0.9993291872793697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="1"/>
+        <v>0.99987659019591335</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.89988893117632207</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>0.99975319562180642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="16">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="1"/>
+        <v>0.99995460007023751</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.90904963642748859</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>0.82644628099173545</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0.9999092022016286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10">
+        <f t="shared" ref="B10:C10" si="5">AVERAGE(B1:B9)</f>
+        <v>0.79779140612473964</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="5"/>
+        <v>0.93737392819122478</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(D1:D9)</f>
+        <v>0.76218123148203643</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(F1:F9)</f>
+        <v>0.65314194491352984</v>
+      </c>
+      <c r="G10">
+        <f>AVERAGE(G1:G9)</f>
+        <v>0.89210143191568925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11">
+        <f>D10-C10*B10</f>
+        <v>1.4352367245688447E-2</v>
+      </c>
+      <c r="F11">
+        <f>F10-B10*B10</f>
+        <v>1.6670817227040557E-2</v>
+      </c>
+      <c r="G11">
+        <f>G10-C10*C10</f>
+        <v>1.3431550663041802E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13">
+        <f>D11*D11/(F11*G11)</f>
+        <v>0.91994959456235059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14">
+        <f>SQRT(E13)</f>
+        <v>0.95914002865189119</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +1668,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N1" sqref="N1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1411,74 +1679,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>69</v>
+      <c r="N1" s="42" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
@@ -1496,10 +1764,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="29">
         <v>1.57</v>
@@ -1533,65 +1801,65 @@
         <v>1.68</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C6" s="23">
         <v>207.54</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="23">
         <v>1546.5</v>
@@ -1600,7 +1868,7 @@
         <v>4369.5</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H6" s="23">
         <v>133.01</v>
@@ -1609,7 +1877,7 @@
         <v>432.72</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K6" s="23">
         <v>1294.5</v>

--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="4840" yWindow="9120" windowWidth="20060" windowHeight="7960" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -243,17 +248,17 @@
     <t>Prodcution</t>
   </si>
   <si>
-    <t xml:space="preserve">OP stock </t>
-  </si>
-  <si>
     <t>Marketing offer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPenings stock </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,23 +420,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -439,24 +444,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -465,7 +470,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -473,22 +478,22 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,24 +502,24 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -524,7 +529,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -612,16 +617,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -922,28 +927,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.75" thickBot="1">
+    <row r="1" spans="1:9" ht="38" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +961,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -973,7 +978,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="18" thickBot="1">
+    <row r="3" spans="1:9" ht="17" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39.75" thickBot="1">
+    <row r="4" spans="1:9" ht="26" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="52.5" thickBot="1">
+    <row r="5" spans="1:9" ht="38" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1043,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1">
+    <row r="6" spans="1:9" ht="17" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" thickBot="1">
+    <row r="7" spans="1:9" ht="26" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1091,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1103,7 +1108,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="27" thickBot="1">
+    <row r="9" spans="1:9" ht="26" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1121,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="52.5" thickBot="1">
+    <row r="10" spans="1:9" ht="38" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27" thickBot="1">
+    <row r="11" spans="1:9" ht="26" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1">
+    <row r="12" spans="1:9" ht="17" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+    <row r="13" spans="1:9" ht="15" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1206,7 +1211,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="27" thickBot="1">
+    <row r="14" spans="1:9" ht="26" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1224,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1241,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+    <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1258,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1275,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+    <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1281,7 +1286,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="52.5" thickBot="1">
+    <row r="19" spans="1:9" ht="38" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -1294,7 +1299,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="18" thickBot="1">
+    <row r="20" spans="1:9" ht="17" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" thickBot="1">
+    <row r="21" spans="1:9" ht="17" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" thickBot="1">
+    <row r="22" spans="1:9" ht="17" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -1367,22 +1372,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1660,22 +1670,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1">
@@ -1685,35 +1700,35 @@
       <c r="B1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="41"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
         <v>71</v>
       </c>
@@ -1741,7 +1756,7 @@
       <c r="L2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="M2" s="39"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14">
@@ -1904,5 +1919,10 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -204,12 +204,6 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Dispatch/Sales</t>
-  </si>
-  <si>
-    <t>Internal consumption</t>
-  </si>
-  <si>
     <t>Closing stock</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>Marketing offer</t>
+  </si>
+  <si>
+    <t>Dispatch Sales</t>
+  </si>
+  <si>
+    <t>Int consumption</t>
   </si>
 </sst>
 </file>
@@ -612,16 +612,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N2"/>
+      <selection activeCell="J1" activeCellId="1" sqref="J1:L1 J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1683,65 +1683,65 @@
         <v>61</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="41"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="G2" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="J2" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="39"/>
+      <c r="M2" s="41"/>
       <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14">
@@ -1764,10 +1764,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="28" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="C4" s="29">
         <v>1.57</v>
@@ -1801,65 +1801,65 @@
         <v>1.68</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>69</v>
-      </c>
       <c r="D5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="23">
         <v>207.54</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="23">
         <v>1546.5</v>
@@ -1868,7 +1868,7 @@
         <v>4369.5</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" s="23">
         <v>133.01</v>
@@ -1877,7 +1877,7 @@
         <v>432.72</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K6" s="23">
         <v>1294.5</v>
